--- a/RedCap_SubjectsInfo/STARR-BaselineCharacterist_DATA_Final.xlsx
+++ b/RedCap_SubjectsInfo/STARR-BaselineCharacterist_DATA_Final.xlsx
@@ -10,6 +10,9 @@
   <sheets>
     <sheet name="STARR-BaselineCharacterist_DATA" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'STARR-BaselineCharacterist_DATA'!$A$1:$BK$101</definedName>
+  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -896,8 +899,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -910,7 +917,21 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF3D3D3D"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -920,11 +941,11 @@
   </sheetPr>
   <dimension ref="A1:BK101"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A51" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J73" activeCellId="0" sqref="J73"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B33" activeCellId="0" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.78"/>
@@ -932,193 +953,193 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="0" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="0" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="0" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="0" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="0" t="s">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="0" t="s">
+      <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="0" t="s">
+      <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="0" t="s">
+      <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="0" t="s">
+      <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="0" t="s">
+      <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="0" t="s">
+      <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="0" t="s">
+      <c r="AB1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="0" t="s">
+      <c r="AC1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="0" t="s">
+      <c r="AD1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="0" t="s">
+      <c r="AE1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="0" t="s">
+      <c r="AF1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="0" t="s">
+      <c r="AG1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="0" t="s">
+      <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="0" t="s">
+      <c r="AI1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="0" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="0" t="s">
+      <c r="AK1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="0" t="s">
+      <c r="AL1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="0" t="s">
+      <c r="AM1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="0" t="s">
+      <c r="AN1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="0" t="s">
+      <c r="AO1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="0" t="s">
+      <c r="AP1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="0" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="0" t="s">
+      <c r="AR1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="0" t="s">
+      <c r="AS1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="0" t="s">
+      <c r="AT1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="0" t="s">
+      <c r="AU1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="0" t="s">
+      <c r="AV1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="0" t="s">
+      <c r="AW1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="0" t="s">
+      <c r="AX1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="0" t="s">
+      <c r="AY1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="0" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="0" t="s">
+      <c r="BA1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="0" t="s">
+      <c r="BB1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="0" t="s">
+      <c r="BC1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="0" t="s">
+      <c r="BD1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="0" t="s">
+      <c r="BE1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="0" t="s">
+      <c r="BF1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="0" t="s">
+      <c r="BG1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="0" t="s">
+      <c r="BH1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" s="0" t="s">
+      <c r="BI1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" s="0" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" s="0" t="s">
+      <c r="BK1" s="1" t="s">
         <v>62</v>
       </c>
     </row>
@@ -14715,7 +14736,7 @@
         <v>220</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="C79" s="0" t="s">
         <v>221</v>
@@ -17346,7 +17367,7 @@
         <v>250</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="C94" s="0" t="s">
         <v>251</v>
@@ -18029,7 +18050,7 @@
         <v>258</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="C98" s="0" t="s">
         <v>259</v>
@@ -18363,7 +18384,7 @@
         <v>262</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="C100" s="0" t="s">
         <v>263</v>
@@ -18633,6 +18654,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:BK101"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -18640,5 +18662,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/RedCap_SubjectsInfo/STARR-BaselineCharacterist_DATA_Final.xlsx
+++ b/RedCap_SubjectsInfo/STARR-BaselineCharacterist_DATA_Final.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3091" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3104" uniqueCount="354">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -958,78 +958,78 @@
     <t xml:space="preserve">STARR_095</t>
   </si>
   <si>
+    <t xml:space="preserve">STRA0095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, not fasting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STRA0096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STRA0097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STRA0098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STRA0099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STRA0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STRA0101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STRA0102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STRA0103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STRA0104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STRA0105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_106</t>
+  </si>
+  <si>
     <t xml:space="preserve">possible</t>
   </si>
   <si>
-    <t xml:space="preserve">STRA0095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No, not fasting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STARR_096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STRA0096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STARR_097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STRA0097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STARR_098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STRA0098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STARR_099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STRA0099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STARR_100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STRA0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STARR_101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STRA0101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STARR_102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STRA0102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STARR_103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STRA0103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STARR_104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STRA0104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STARR_105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STRA0105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STARR_106</t>
-  </si>
-  <si>
     <t xml:space="preserve">STRA0106</t>
   </si>
   <si>
@@ -1055,6 +1055,36 @@
   </si>
   <si>
     <t xml:space="preserve">STRA0110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STRA0111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STRA0112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STRA0113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STRA0114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STRA0115</t>
   </si>
 </sst>
 </file>
@@ -1170,14 +1200,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:CK111"/>
+  <dimension ref="A1:CK116"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C80" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A80" activeCellId="0" sqref="A80"/>
-      <selection pane="bottomRight" activeCell="E116" activeCellId="0" sqref="E116"/>
+      <selection pane="bottomRight" activeCell="C115" activeCellId="0" sqref="C115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -27523,13 +27553,13 @@
         <v>310</v>
       </c>
       <c r="B96" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="C96" s="0" t="s">
         <v>311</v>
       </c>
-      <c r="C96" s="0" t="s">
-        <v>312</v>
-      </c>
       <c r="D96" s="0" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E96" s="0" t="n">
         <v>1</v>
@@ -27783,7 +27813,7 @@
         <v>#N/A</v>
       </c>
       <c r="CG96" s="0" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="CH96" s="0" t="s">
         <v>136</v>
@@ -27800,16 +27830,16 @@
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
+        <v>313</v>
+      </c>
+      <c r="B97" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="C97" s="0" t="s">
         <v>314</v>
       </c>
-      <c r="B97" s="0" t="s">
-        <v>311</v>
-      </c>
-      <c r="C97" s="0" t="s">
-        <v>315</v>
-      </c>
       <c r="D97" s="0" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E97" s="0" t="n">
         <v>1</v>
@@ -28063,7 +28093,7 @@
         <v>#N/A</v>
       </c>
       <c r="CG97" s="0" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="CH97" s="0" t="s">
         <v>136</v>
@@ -28080,16 +28110,16 @@
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="B98" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="C98" s="0" t="s">
         <v>316</v>
       </c>
-      <c r="B98" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="C98" s="0" t="s">
-        <v>317</v>
-      </c>
       <c r="D98" s="0" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E98" s="0" t="n">
         <v>1</v>
@@ -28358,16 +28388,16 @@
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="B99" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="C99" s="0" t="s">
         <v>318</v>
       </c>
-      <c r="B99" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="C99" s="0" t="s">
-        <v>319</v>
-      </c>
       <c r="D99" s="0" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E99" s="0" t="n">
         <v>1</v>
@@ -28642,16 +28672,16 @@
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="B100" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="C100" s="0" t="s">
         <v>320</v>
       </c>
-      <c r="B100" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="C100" s="0" t="s">
-        <v>321</v>
-      </c>
       <c r="D100" s="0" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E100" s="0" t="n">
         <v>1</v>
@@ -28920,16 +28950,16 @@
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="B101" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="C101" s="0" t="s">
         <v>322</v>
       </c>
-      <c r="B101" s="0" t="s">
-        <v>311</v>
-      </c>
-      <c r="C101" s="0" t="s">
-        <v>323</v>
-      </c>
       <c r="D101" s="0" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E101" s="0" t="n">
         <v>1</v>
@@ -29196,16 +29226,16 @@
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="B102" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="C102" s="0" t="s">
         <v>324</v>
       </c>
-      <c r="B102" s="0" t="s">
-        <v>311</v>
-      </c>
-      <c r="C102" s="0" t="s">
-        <v>325</v>
-      </c>
       <c r="D102" s="0" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E102" s="0" t="n">
         <v>1</v>
@@ -29493,16 +29523,16 @@
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B103" s="0" t="s">
         <v>90</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D103" s="0" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E103" s="0" t="n">
         <v>1</v>
@@ -29776,16 +29806,16 @@
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="B104" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="C104" s="0" t="s">
         <v>328</v>
       </c>
-      <c r="B104" s="0" t="s">
-        <v>311</v>
-      </c>
-      <c r="C104" s="0" t="s">
-        <v>329</v>
-      </c>
       <c r="D104" s="0" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E104" s="0" t="n">
         <v>1</v>
@@ -30061,16 +30091,16 @@
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="B105" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="C105" s="0" t="s">
         <v>330</v>
       </c>
-      <c r="B105" s="0" t="s">
-        <v>311</v>
-      </c>
-      <c r="C105" s="0" t="s">
-        <v>331</v>
-      </c>
       <c r="D105" s="0" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E105" s="0" t="n">
         <v>1</v>
@@ -30344,16 +30374,16 @@
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="B106" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="C106" s="0" t="s">
         <v>332</v>
       </c>
-      <c r="B106" s="0" t="s">
-        <v>311</v>
-      </c>
-      <c r="C106" s="0" t="s">
-        <v>333</v>
-      </c>
       <c r="D106" s="0" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E106" s="0" t="n">
         <v>1</v>
@@ -30621,10 +30651,10 @@
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="B107" s="0" t="s">
         <v>334</v>
-      </c>
-      <c r="B107" s="0" t="s">
-        <v>311</v>
       </c>
       <c r="C107" s="0" t="s">
         <v>335</v>
@@ -30905,7 +30935,7 @@
         <v>336</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>311</v>
+        <v>334</v>
       </c>
       <c r="C108" s="0" t="s">
         <v>337</v>
@@ -31213,7 +31243,7 @@
         <v>338</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>311</v>
+        <v>334</v>
       </c>
       <c r="C109" s="0" t="s">
         <v>339</v>
@@ -31521,7 +31551,7 @@
         <v>340</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>311</v>
+        <v>90</v>
       </c>
       <c r="C110" s="0" t="s">
         <v>341</v>
@@ -31827,7 +31857,7 @@
         <v>342</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>311</v>
+        <v>334</v>
       </c>
       <c r="C111" s="0" t="s">
         <v>343</v>
@@ -32096,6 +32126,55 @@
       </c>
       <c r="CK111" s="0" t="s">
         <v>101</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="B112" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="C112" s="0" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="0" t="s">
+        <v>346</v>
+      </c>
+      <c r="B113" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="C113" s="0" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="0" t="s">
+        <v>348</v>
+      </c>
+      <c r="B114" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="C114" s="0" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="0" t="s">
+        <v>350</v>
+      </c>
+      <c r="C115" s="0" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="C116" s="0" t="s">
+        <v>353</v>
       </c>
     </row>
   </sheetData>
